--- a/love_movies.xlsx
+++ b/love_movies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffsmacbookair/Data_Studio/Project-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3830D9-0ADC-E54F-A264-37D6C39A41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A0375-DDB0-6644-80F7-6FFD36F9EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="500" windowWidth="25360" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
